--- a/data/trans_dic/P2A_fisi_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,66</t>
+          <t>1,29; 5,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 9,31</t>
+          <t>3,49; 8,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 14,28</t>
+          <t>6,84; 14,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,84</t>
+          <t>0,82; 5,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 12,57</t>
+          <t>5,58; 12,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,61; 13,99</t>
+          <t>8,45; 13,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,36</t>
+          <t>1,51; 4,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 9,76</t>
+          <t>5,18; 9,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,45; 12,88</t>
+          <t>8,55; 13,15</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 10,82</t>
+          <t>5,69; 10,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,05; 11,34</t>
+          <t>5,48; 10,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,26</t>
+          <t>2,06; 5,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,46; 22,8</t>
+          <t>14,15; 22,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,39</t>
+          <t>5,63; 10,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,85; 10,97</t>
+          <t>5,7; 10,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,29</t>
+          <t>2,6; 6,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,14; 18,35</t>
+          <t>13,0; 18,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 9,74</t>
+          <t>6,18; 9,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,49; 10,16</t>
+          <t>6,53; 10,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,24</t>
+          <t>2,64; 5,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,63; 19,56</t>
+          <t>14,74; 19,45</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,2</t>
+          <t>0,9; 4,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 11,16</t>
+          <t>4,97; 11,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,5</t>
+          <t>0,71; 3,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,97; 17,0</t>
+          <t>10,03; 16,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,34</t>
+          <t>1,3; 5,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,45; 11,19</t>
+          <t>5,47; 11,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,15</t>
+          <t>1,85; 6,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,34; 14,14</t>
+          <t>8,61; 13,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,84</t>
+          <t>1,45; 4,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,31</t>
+          <t>5,64; 10,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,1</t>
+          <t>1,53; 3,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,91; 14,47</t>
+          <t>9,77; 14,12</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,18</t>
+          <t>1,05; 4,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,81</t>
+          <t>5,03; 9,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 11,48</t>
+          <t>5,88; 11,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 11,31</t>
+          <t>4,26; 11,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 7,47</t>
+          <t>2,82; 7,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,92; 13,9</t>
+          <t>8,75; 13,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 14,94</t>
+          <t>7,94; 14,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 8,07</t>
+          <t>3,27; 8,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,06</t>
+          <t>2,46; 4,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,43; 10,79</t>
+          <t>7,45; 10,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,55; 12,12</t>
+          <t>7,5; 12,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,45</t>
+          <t>4,42; 8,63</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,78; 12,24</t>
+          <t>5,0; 12,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,86; 19,18</t>
+          <t>8,63; 18,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 11,36</t>
+          <t>4,19; 11,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,46; 10,99</t>
+          <t>4,6; 10,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,2; 14,78</t>
+          <t>6,08; 14,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,71; 25,42</t>
+          <t>14,94; 26,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,08; 11,08</t>
+          <t>4,15; 10,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 10,46</t>
+          <t>5,23; 10,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,8; 12,52</t>
+          <t>6,66; 12,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,16; 19,96</t>
+          <t>13,0; 20,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,78; 9,84</t>
+          <t>4,83; 9,69</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,84; 9,86</t>
+          <t>5,82; 9,76</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,88</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,27; 9,01</t>
+          <t>3,42; 9,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,7; 12,64</t>
+          <t>5,37; 12,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,33; 27,25</t>
+          <t>17,79; 26,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,92</t>
+          <t>1,11; 5,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,6; 15,54</t>
+          <t>8,1; 15,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,96; 13,44</t>
+          <t>5,84; 13,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,75; 23,85</t>
+          <t>15,99; 23,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,0</t>
+          <t>0,88; 3,05</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,14; 11,24</t>
+          <t>6,41; 11,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,67; 11,58</t>
+          <t>6,46; 11,6</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,97; 23,82</t>
+          <t>18,22; 24,23</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,66</t>
+          <t>4,04; 7,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,87; 9,33</t>
+          <t>4,79; 9,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,1</t>
+          <t>2,88; 6,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,98; 14,03</t>
+          <t>9,03; 14,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,09; 7,91</t>
+          <t>3,98; 7,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,83; 10,28</t>
+          <t>5,55; 10,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,05</t>
+          <t>4,3; 8,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,47; 54,9</t>
+          <t>12,44; 53,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,39; 7,12</t>
+          <t>4,34; 6,91</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,79; 8,99</t>
+          <t>5,86; 8,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,55</t>
+          <t>3,91; 6,49</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,71; 40,25</t>
+          <t>11,75; 38,65</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,95; 8,75</t>
+          <t>4,96; 8,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,67</t>
+          <t>4,88; 8,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,99</t>
+          <t>5,23; 9,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,39</t>
+          <t>4,65; 8,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,36; 11,59</t>
+          <t>7,33; 11,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,99</t>
+          <t>4,52; 8,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,66</t>
+          <t>5,73; 9,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,37; 10,8</t>
+          <t>7,39; 10,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,61; 9,46</t>
+          <t>6,79; 9,56</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5,08; 7,67</t>
+          <t>5,2; 7,74</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6,0; 8,68</t>
+          <t>6,0; 8,72</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,35; 8,96</t>
+          <t>6,39; 9,05</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,27; 5,75</t>
+          <t>4,23; 5,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,54; 8,44</t>
+          <t>6,37; 8,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,84; 6,41</t>
+          <t>4,83; 6,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,28; 12,63</t>
+          <t>10,16; 12,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,05</t>
+          <t>5,37; 7,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,15; 10,13</t>
+          <t>8,08; 10,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,05; 7,87</t>
+          <t>6,01; 7,74</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,05; 23,21</t>
+          <t>11,08; 22,95</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,14</t>
+          <t>5,05; 6,16</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>7,57; 8,96</t>
+          <t>7,56; 8,98</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>5,65; 6,85</t>
+          <t>5,65; 6,78</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>11,1; 17,88</t>
+          <t>11,11; 17,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_fisi_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>10,04%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,2; 11,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 14,37</t>
+          <t>6,37; 13,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,25; 17,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,45; 13,96</t>
+          <t>8,06; 13,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,98; 13,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,55; 13,15</t>
+          <t>8,07; 12,53</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>16,24%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,15; 22,35</t>
+          <t>13,33; 21,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,0; 18,49</t>
+          <t>12,71; 18,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,74; 19,45</t>
+          <t>14,18; 18,79</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>11,79%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,03; 16,78</t>
+          <t>9,88; 16,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,61; 13,91</t>
+          <t>8,56; 13,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,77; 14,12</t>
+          <t>9,62; 14,04</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,17 +1091,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,17 +1111,17 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,01%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 9,0</t>
+          <t>3,97; 9,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 11,69</t>
+          <t>4,01; 11,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 7,28</t>
+          <t>3,1; 7,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 13,79</t>
+          <t>6,65; 12,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 8,01</t>
+          <t>2,21; 6,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 4,99</t>
+          <t>2,56; 5,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,45; 10,83</t>
+          <t>5,94; 9,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 8,63</t>
+          <t>3,43; 7,32</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>7,16%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 10,81</t>
+          <t>4,58; 10,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,3</t>
+          <t>3,52; 9,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,76</t>
+          <t>4,85; 9,38</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>20,42%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,79; 26,61</t>
+          <t>17,05; 25,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,99; 23,66</t>
+          <t>15,89; 23,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,22; 24,23</t>
+          <t>17,74; 23,58</t>
         </is>
       </c>
     </row>
@@ -1511,12 +1511,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1531,12 +1531,12 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>33,98%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>24,27%</t>
         </is>
       </c>
     </row>
@@ -1579,12 +1579,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,03; 14,83</t>
+          <t>8,72; 14,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,6</t>
+          <t>4,05; 7,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,44; 53,92</t>
+          <t>12,26; 68,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,34; 6,91</t>
+          <t>4,42; 6,99</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,75; 38,65</t>
+          <t>11,44; 51,72</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>6,29%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,65; 8,43</t>
+          <t>1,89; 6,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,39; 10,88</t>
+          <t>6,9; 10,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,39; 9,05</t>
+          <t>3,84; 7,88</t>
         </is>
       </c>
     </row>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>13,19%</t>
         </is>
       </c>
     </row>
@@ -1859,12 +1859,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,16; 12,58</t>
+          <t>8,12; 11,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,37; 7,07</t>
+          <t>5,4; 7,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1879,12 +1879,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,08; 22,95</t>
+          <t>10,48; 30,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,16</t>
+          <t>5,08; 6,19</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>11,11; 17,77</t>
+          <t>10,27; 21,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_fisi_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad física</t>
+          <t>Hogares con personas con limitación por discapacidad física</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,69</t>
+          <t>1,31; 6,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,2; 11,27</t>
+          <t>5,31; 12,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 8,93</t>
+          <t>3,18; 8,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,37; 13,93</t>
+          <t>6,45; 13,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,05</t>
+          <t>0,81; 4,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,25; 17,86</t>
+          <t>9,13; 17,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 12,36</t>
+          <t>5,84; 12,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,06; 13,42</t>
+          <t>8,05; 13,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,46</t>
+          <t>1,41; 4,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,98; 13,33</t>
+          <t>7,97; 13,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,18; 9,92</t>
+          <t>5,28; 9,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 12,53</t>
+          <t>8,06; 12,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,69; 10,88</t>
+          <t>5,44; 10,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 10,94</t>
+          <t>5,82; 11,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,28</t>
+          <t>2,03; 5,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,33; 21,4</t>
+          <t>13,49; 21,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,25</t>
+          <t>5,45; 10,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,81</t>
+          <t>6,0; 10,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 6,36</t>
+          <t>2,5; 6,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,71; 18,03</t>
+          <t>12,85; 17,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 9,55</t>
+          <t>6,08; 9,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,53; 10,19</t>
+          <t>6,4; 9,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,18</t>
+          <t>2,71; 5,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,18; 18,79</t>
+          <t>13,86; 18,57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,36</t>
+          <t>0,93; 4,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 11,57</t>
+          <t>4,76; 11,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,37</t>
+          <t>0,57; 3,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,88; 16,63</t>
+          <t>9,29; 16,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,04</t>
+          <t>1,31; 5,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 11,28</t>
+          <t>5,36; 11,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,1</t>
+          <t>1,86; 5,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 13,88</t>
+          <t>8,58; 14,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,01</t>
+          <t>1,55; 4,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,64; 10,11</t>
+          <t>5,89; 10,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,89</t>
+          <t>1,45; 4,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,62; 14,04</t>
+          <t>9,65; 14,08</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,25</t>
+          <t>1,01; 4,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 9,33</t>
+          <t>3,74; 9,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 11,56</t>
+          <t>5,63; 11,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 11,08</t>
+          <t>4,0; 11,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 7,58</t>
+          <t>3,12; 7,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,65; 12,71</t>
+          <t>6,75; 12,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,94; 14,66</t>
+          <t>7,64; 14,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 6,16</t>
+          <t>2,05; 6,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,21</t>
+          <t>2,41; 5,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,94; 9,94</t>
+          <t>5,9; 9,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,5; 12,25</t>
+          <t>7,63; 12,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 7,32</t>
+          <t>3,36; 7,31</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,0; 12,61</t>
+          <t>5,0; 12,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,63; 18,55</t>
+          <t>8,88; 18,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 11,53</t>
+          <t>4,2; 11,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,58; 10,72</t>
+          <t>4,82; 10,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 14,42</t>
+          <t>6,2; 14,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,94; 26,11</t>
+          <t>15,14; 25,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 10,85</t>
+          <t>4,25; 10,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,52; 9,73</t>
+          <t>3,85; 9,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 12,36</t>
+          <t>6,71; 12,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,0; 20,35</t>
+          <t>12,9; 19,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,69</t>
+          <t>4,94; 10,04</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,85; 9,38</t>
+          <t>4,83; 9,11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,5</t>
+          <t>0,0; 2,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,42; 9,46</t>
+          <t>3,04; 9,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,3</t>
+          <t>5,56; 12,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,05; 25,45</t>
+          <t>17,14; 26,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,28</t>
+          <t>1,13; 5,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,1; 15,93</t>
+          <t>7,66; 15,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,84; 13,58</t>
+          <t>5,89; 13,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,89; 23,46</t>
+          <t>16,12; 23,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,05</t>
+          <t>0,77; 2,95</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,41; 11,26</t>
+          <t>6,52; 11,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 11,6</t>
+          <t>6,68; 11,8</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,74; 23,58</t>
+          <t>17,87; 23,52</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,85</t>
+          <t>4,04; 7,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,11</t>
+          <t>4,92; 9,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,22</t>
+          <t>2,76; 6,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,72; 14,46</t>
+          <t>8,65; 13,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 7,71</t>
+          <t>4,05; 7,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,55; 10,05</t>
+          <t>5,84; 10,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,3; 8,17</t>
+          <t>4,33; 8,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,26; 68,25</t>
+          <t>12,25; 63,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,42; 6,99</t>
+          <t>4,49; 7,19</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 8,74</t>
+          <t>5,93; 9,04</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,49</t>
+          <t>3,98; 6,54</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,44; 51,72</t>
+          <t>11,58; 53,91</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,96; 8,61</t>
+          <t>4,85; 8,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,72</t>
+          <t>4,98; 8,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,23; 9,31</t>
+          <t>5,17; 9,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,95</t>
+          <t>1,99; 6,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,33; 11,8</t>
+          <t>7,4; 11,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,14</t>
+          <t>4,65; 8,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,73; 9,71</t>
+          <t>5,71; 9,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,9; 10,15</t>
+          <t>6,86; 10,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,56</t>
+          <t>6,74; 9,64</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5,2; 7,74</t>
+          <t>5,23; 7,81</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6,0; 8,72</t>
+          <t>6,07; 8,86</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,84; 7,88</t>
+          <t>3,85; 7,77</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,23; 5,8</t>
+          <t>4,26; 5,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,37; 8,33</t>
+          <t>6,39; 8,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,83; 6,4</t>
+          <t>4,74; 6,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,87</t>
+          <t>8,35; 11,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,4; 7,14</t>
+          <t>5,42; 7,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,08; 10,13</t>
+          <t>8,09; 10,04</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,01; 7,74</t>
+          <t>6,05; 7,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,48; 30,86</t>
+          <t>10,52; 31,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,08; 6,19</t>
+          <t>5,08; 6,25</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>7,56; 8,98</t>
+          <t>7,55; 8,89</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>5,65; 6,78</t>
+          <t>5,65; 6,89</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>10,27; 21,36</t>
+          <t>10,32; 22,62</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con limitación por discapacidad física</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7757</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23107</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16543</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>29740</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6194</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37698</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25035</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>30588</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13951</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>60805</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>41578</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>60328</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3578; 16922</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15640; 36638</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9353; 25956</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>20088; 41495</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2100; 12648</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26233; 50863</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16854; 37409</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23323; 38738</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7545; 23167</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>46369; 76402</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>30740; 58184</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>48461; 76328</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>38579</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>40881</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16757</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>88648</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>39112</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>42528</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21304</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>79217</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>77692</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>83408</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>38061</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>167865</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>26819; 52521</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>29429; 56083</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10196; 27205</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>69916; 110585</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>27453; 53520</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>31411; 57285</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>13099; 31792</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>66170; 92657</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>60578; 95813</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>65902; 102485</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>27769; 52039</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>143239; 191931</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6922</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24209</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>40240</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9560</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27298</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11719</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38173</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16482</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>51507</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16794</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>78413</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2956; 13637</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15431; 38185</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1815; 11171</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>29368; 52446</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4408; 17859</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18277; 38578</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6248; 20018</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29963; 49465</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10153; 26499</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>39201; 68985</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9478; 26512</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>64182; 93653</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8246</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22123</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>30756</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>21229</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18694</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>36909</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>42551</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>18236</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>26941</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>59032</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>73307</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>39465</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3633; 14967</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>13996; 33689</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>20840; 43473</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>12503; 36233</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11582; 28793</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>26237; 50110</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>29607; 57998</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9767; 29306</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>17581; 38070</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>45047; 75363</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>57810; 90877</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>26502; 57600</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16585</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>27939</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>15139</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12940</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>20724</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>42904</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15281</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18401</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>37309</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>70844</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>30420</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>31341</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10156; 25255</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>18888; 40280</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8874; 23925</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8610; 19558</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12874; 30421</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>33237; 56656</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9279; 23852</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9969; 25383</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>27594; 50099</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>55739; 86310</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>21214; 43163</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>21117; 39870</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>16073</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>22169</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>57024</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>7230</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>31348</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>25207</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>50501</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>9162</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>47422</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>47376</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>107525</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6862</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8336; 24946</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>14630; 31984</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>46211; 70928</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3133; 14453</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>21448; 42890</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>16084; 37067</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>41434; 61431</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>4212; 16213</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>36117; 62468</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>35810; 63264</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>94138; 123895</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>34608</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>44659</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>27531</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>69020</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>36457</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>53643</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>41657</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>288552</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>71065</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>98302</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>69189</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>357572</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>24839; 46881</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>32638; 61237</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>18115; 40920</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>54029; 86194</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>25829; 50748</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>40490; 70030</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>29906; 56013</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>104052; 538269</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>56333; 90120</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>80491; 122694</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>53577; 88169</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>170580; 794377</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>48982</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>51513</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>54524</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>43150</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>73557</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>51024</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>61960</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>60441</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>122539</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>102538</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>116484</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>103591</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>36065; 65154</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>38787; 69261</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>40279; 71019</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>18527; 64356</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>57966; 92513</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>38339; 67836</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>47155; 79259</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>49245; 73693</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>102901; 147305</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>83803; 125235</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>97341; 142213</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>63338; 127991</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>163611</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>250504</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>188494</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>361991</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>211529</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>323353</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>244714</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>584109</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>375140</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>573858</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>433208</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>946100</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>139518; 191126</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>219117; 283385</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>161060; 215899</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>288845; 406715</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>183046; 240842</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>287725; 357100</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>214419; 275554</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>390677; 1159719</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>338131; 415727</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>527507; 620899</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>392163; 478357</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>739944; 1622589</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>